--- a/StructureDefinition-profile-CarePlan.xlsx
+++ b/StructureDefinition-profile-CarePlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="548">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6325257-06:00</t>
+    <t>2026-02-09T22:05:43.0058028-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,14 +595,24 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.basedOn|0.0.1-snapshot-3}
+    <t>CarePlan.basedOn.extension:basedOn</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
     <t>Cross-version extension for CarePlan.basedOn from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>A higher-level request resource (i.e. a plan, proposal or order) that is fulfilled in whole or in part by this care plan.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/NutritionOrder,http://hl7.org/fhir/StructureDefinition/RequestOrchestration,http://hl7.org/fhir/StructureDefinition/ServiceRequest in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CarePlan.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `CarePlan.basedOn` is mapped to FHIR R4 element `CarePlan.basedOn`.</t>
   </si>
   <si>
     <t>CarePlan.basedOn.reference</t>
@@ -789,6 +799,12 @@
     <t>CarePlan.intent.extension</t>
   </si>
   <si>
+    <t>CarePlan.intent.extension:intent</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.intent|0.0.1-snapshot-3}
 </t>
   </si>
@@ -796,8 +812,8 @@
     <t>Cross-version extension for CarePlan.intent from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.
-This element is expected to be immutable. E.g. A "proposal" instance should never change to be a "plan" instance or "order" instance. Instead, a new instance 'basedOn' the prior instance should be created with the new 'intent' value.</t>
+    <t>Note that the target element context `CarePlan.intent` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `CarePlan.intent` is mapped to FHIR R4 element `CarePlan.intent`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1079,6 +1095,12 @@
     <t>CarePlan.addresses.extension</t>
   </si>
   <si>
+    <t>CarePlan.addresses.extension:addresses</t>
+  </si>
+  <si>
+    <t>addresses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.addresses|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1086,7 +1108,7 @@
     <t>Cross-version extension for CarePlan.addresses from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Use CarePlan.addresses.concept when a code sufficiently describes the concern (e.g. condition, problem, diagnosis, risk). Use CarePlan.addresses.reference when referencing a resource, which allows more information to be conveyed, such as onset date. CarePlan.addresses.concept and CarePlan.addresses.reference are not meant to be duplicative. For a single concern, either CarePlan.addresses.concept or CarePlan.addresses.reference can be used. CarePlan.addresses.concept may be a summary code, or CarePlan.addresses.reference may be used to reference a very precise definition of the concern using Condition. Both CarePlan.addresses.concept and CarePlan.addresses.reference can be used if they are describing different concerns for the care plan.</t>
+    <t>Element `CarePlan.addresses` is mapped to FHIR R4 element `CarePlan.addresses`.</t>
   </si>
   <si>
     <t>CarePlan.addresses.reference</t>
@@ -1298,15 +1320,20 @@
     <t>CarePlan.activity.reference.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.activity.plannedActivityReference|0.0.1-snapshot-3}
-</t>
+    <t>CarePlan.activity.reference.extension:plannedActivityReference</t>
+  </si>
+  <si>
+    <t>plannedActivityReference</t>
   </si>
   <si>
     <t>Cross-version extension for CarePlan.activity.plannedActivityReference from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Standard extension exists ([http://hl7.org/fhir/StructureDefinition/resource-pertainsToGoal](http://hl7.org/fhir/extensions/StructureDefinition-resource-pertainsToGoal.html)) that allows goals to be referenced from any of the referenced resources in CarePlan.activity.plannedActivityReference.  
-The goal should be visible when the resource referenced by CarePlan.activity.plannedActivityReference is viewed independently from the CarePlan.  Requests that are pointed to by a CarePlan using this element should *not* point to this CarePlan using the "basedOn" element.  i.e. Requests that are part of a CarePlan are not "based on" the CarePlan.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation,http://hl7.org/fhir/StructureDefinition/SupplyRequest in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CarePlan.activity.plannedActivityReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `CarePlan.activity.plannedActivityReference` is mapped to FHIR R4 element `CarePlan.activity.reference`.</t>
   </si>
   <si>
     <t>CarePlan.activity.reference.reference</t>
@@ -2013,9 +2040,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.12890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.0390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.6015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -3781,7 +3808,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
@@ -3882,12 +3909,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3896,7 +3925,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3908,15 +3937,17 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3994,10 +4025,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4023,13 +4054,13 @@
         <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4079,7 +4110,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4088,7 +4119,7 @@
         <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>100</v>
@@ -4108,10 +4139,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4137,13 +4168,13 @@
         <v>102</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4169,13 +4200,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4193,7 +4224,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4222,10 +4253,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4251,13 +4282,13 @@
         <v>146</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4307,7 +4338,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4325,7 +4356,7 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4336,10 +4367,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4365,13 +4396,13 @@
         <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4421,7 +4452,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4450,14 +4481,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4479,16 +4510,16 @@
         <v>168</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4537,7 +4568,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4552,7 +4583,7 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -4566,10 +4597,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4595,13 +4626,13 @@
         <v>168</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4651,7 +4682,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4680,10 +4711,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4709,16 +4740,16 @@
         <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4743,13 +4774,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="Z24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4767,7 +4798,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
@@ -4782,24 +4813,24 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4825,16 +4856,16 @@
         <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4859,13 +4890,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4883,7 +4914,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -4898,7 +4929,7 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -4912,10 +4943,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4941,10 +4972,10 @@
         <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5024,10 +5055,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5134,12 +5165,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5160,16 +5193,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5228,7 +5261,7 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>139</v>
@@ -5248,10 +5281,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5277,10 +5310,10 @@
         <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5331,7 +5364,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5360,10 +5393,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5386,19 +5419,19 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5423,13 +5456,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5447,7 +5480,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5468,7 +5501,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5476,10 +5509,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5505,10 +5538,10 @@
         <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5559,7 +5592,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5588,10 +5621,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5617,14 +5650,14 @@
         <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5673,7 +5706,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5694,7 +5727,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5702,14 +5735,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5728,13 +5761,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5785,7 +5818,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>88</v>
@@ -5800,24 +5833,24 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5840,16 +5873,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5899,7 +5932,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5914,28 +5947,28 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5954,19 +5987,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6015,7 +6048,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6030,28 +6063,28 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6070,13 +6103,13 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6127,7 +6160,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6142,13 +6175,13 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6156,10 +6189,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6182,16 +6215,16 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6241,7 +6274,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6256,13 +6289,13 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6270,10 +6303,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6296,16 +6329,16 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6355,7 +6388,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6384,10 +6417,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6410,17 +6443,17 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6469,7 +6502,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6484,13 +6517,13 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6498,10 +6531,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6524,19 +6557,19 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6585,7 +6618,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6600,24 +6633,24 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6726,10 +6759,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6737,7 +6770,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6838,12 +6871,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6864,16 +6899,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6952,10 +6987,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6981,13 +7016,13 @@
         <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7037,7 +7072,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7046,7 +7081,7 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
@@ -7066,10 +7101,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7095,13 +7130,13 @@
         <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7127,13 +7162,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7151,7 +7186,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7180,10 +7215,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7209,13 +7244,13 @@
         <v>146</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7265,7 +7300,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7283,7 +7318,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7294,10 +7329,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7323,13 +7358,13 @@
         <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7379,7 +7414,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7408,10 +7443,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7434,19 +7469,19 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7495,7 +7530,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7510,7 +7545,7 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -7524,10 +7559,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7550,19 +7585,19 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7611,7 +7646,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7629,21 +7664,21 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7666,17 +7701,17 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7725,7 +7760,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7737,13 +7772,13 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7754,10 +7789,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7866,10 +7901,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7898,7 +7933,7 @@
         <v>135</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>137</v>
@@ -7980,14 +8015,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8009,10 +8044,10 @@
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>137</v>
@@ -8067,7 +8102,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8096,10 +8131,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8122,16 +8157,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8157,13 +8192,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8181,7 +8216,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8210,10 +8245,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8236,19 +8271,19 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8297,7 +8332,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8312,10 +8347,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8326,10 +8361,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8352,19 +8387,19 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8413,7 +8448,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8431,21 +8466,21 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8468,19 +8503,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8529,7 +8564,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8538,16 +8573,16 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8558,10 +8593,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8670,10 +8705,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8681,7 +8716,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8782,12 +8817,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8808,16 +8845,16 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>409</v>
+        <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8896,10 +8933,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8925,13 +8962,13 @@
         <v>174</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8981,7 +9018,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8990,7 +9027,7 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>100</v>
@@ -9010,10 +9047,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9039,13 +9076,13 @@
         <v>102</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9071,13 +9108,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9095,7 +9132,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9124,10 +9161,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9153,13 +9190,13 @@
         <v>146</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9209,7 +9246,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9227,7 +9264,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9238,10 +9275,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9267,13 +9304,13 @@
         <v>174</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9323,7 +9360,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9352,10 +9389,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9378,17 +9415,17 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9437,7 +9474,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9446,7 +9483,7 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>100</v>
@@ -9455,7 +9492,7 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9466,10 +9503,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9578,10 +9615,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9610,7 +9647,7 @@
         <v>135</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>137</v>
@@ -9692,14 +9729,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9721,10 +9758,10 @@
         <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>137</v>
@@ -9779,7 +9816,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9808,10 +9845,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9837,14 +9874,14 @@
         <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -9869,13 +9906,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -9893,7 +9930,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9911,7 +9948,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -9922,10 +9959,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9948,17 +9985,17 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>157</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10007,7 +10044,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10036,10 +10073,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10068,13 +10105,13 @@
         <v>162</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>164</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10123,7 +10160,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10152,10 +10189,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10178,19 +10215,19 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10215,13 +10252,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10239,7 +10276,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10254,24 +10291,24 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10294,16 +10331,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10329,13 +10366,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10353,7 +10390,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10368,7 +10405,7 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10382,10 +10419,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10408,16 +10445,16 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10467,7 +10504,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10482,7 +10519,7 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -10496,10 +10533,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10522,17 +10559,17 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10581,7 +10618,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10599,7 +10636,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10610,10 +10647,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10639,16 +10676,16 @@
         <v>108</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10673,13 +10710,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -10697,7 +10734,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>88</v>
@@ -10712,24 +10749,24 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10752,16 +10789,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10811,7 +10848,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10826,7 +10863,7 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
@@ -10840,10 +10877,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10866,25 +10903,25 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q78" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>80</v>
@@ -10929,7 +10966,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10944,10 +10981,10 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -10958,10 +10995,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10984,17 +11021,17 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11043,7 +11080,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11058,24 +11095,24 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11098,19 +11135,19 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11159,7 +11196,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11177,21 +11214,21 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11214,19 +11251,19 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11275,7 +11312,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11290,24 +11327,24 @@
         <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11330,13 +11367,13 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11363,13 +11400,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11387,7 +11424,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11405,25 +11442,25 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11442,17 +11479,17 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -11501,7 +11538,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11519,21 +11556,21 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11556,13 +11593,13 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11613,7 +11650,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11631,21 +11668,21 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11671,10 +11708,10 @@
         <v>174</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11725,7 +11762,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11743,21 +11780,21 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11780,17 +11817,17 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -11839,7 +11876,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11854,16 +11891,16 @@
         <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-CarePlan.xlsx
+++ b/StructureDefinition-profile-CarePlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="543">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0058028-06:00</t>
+    <t>2026-02-17T14:42:26.7447672-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -612,7 +612,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CarePlan.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `CarePlan.basedOn` is mapped to FHIR R4 element `CarePlan.basedOn`.</t>
+Element `CarePlan.basedOn` has is mapped to FHIR R4 element `CarePlan.basedOn`, but has no comparisons.</t>
   </si>
   <si>
     <t>CarePlan.basedOn.reference</t>
@@ -813,7 +813,7 @@
   </si>
   <si>
     <t>Note that the target element context `CarePlan.intent` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `CarePlan.intent` is mapped to FHIR R4 element `CarePlan.intent`.</t>
+Element `CarePlan.intent` has is mapped to FHIR R4 element `CarePlan.intent`, but has no comparisons.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1108,7 +1108,7 @@
     <t>Cross-version extension for CarePlan.addresses from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `CarePlan.addresses` is mapped to FHIR R4 element `CarePlan.addresses`.</t>
+    <t>Element `CarePlan.addresses` has is mapped to FHIR R4 element `CarePlan.addresses`, but has no comparisons.</t>
   </si>
   <si>
     <t>CarePlan.addresses.reference</t>
@@ -1203,7 +1203,23 @@
     <t>CarePlan.activity.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>CarePlan.activity.extension:activity</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.activity|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CarePlan.activity from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies an action that has occurred or is a planned action to occur as part of the plan. For example, a medication to be used, lab tests to perform, self-monitoring that has occurred, education etc.</t>
+  </si>
+  <si>
+    <t>Element `CarePlan.activity` has is mapped to FHIR R4 element `CarePlan.activity`, but has no comparisons.</t>
   </si>
   <si>
     <t>CarePlan.activity.modifierExtension</t>
@@ -1314,40 +1330,6 @@
     <t>{Request that resulted in Event in activity.actionResulting}</t>
   </si>
   <si>
-    <t>CarePlan.activity.reference.id</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.reference.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.reference.extension:plannedActivityReference</t>
-  </si>
-  <si>
-    <t>plannedActivityReference</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CarePlan.activity.plannedActivityReference from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation,http://hl7.org/fhir/StructureDefinition/SupplyRequest in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CarePlan.activity.plannedActivityReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `CarePlan.activity.plannedActivityReference` is mapped to FHIR R4 element `CarePlan.activity.reference`.</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.reference.reference</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.reference.type</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.reference.identifier</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.reference.display</t>
-  </si>
-  <si>
     <t>CarePlan.activity.detail</t>
   </si>
   <si>
@@ -1367,6 +1349,9 @@
   </si>
   <si>
     <t>CarePlan.activity.detail.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.modifierExtension</t>
@@ -2031,7 +2016,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2040,9 +2025,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.12890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.0390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.0390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.6015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -7908,7 +7893,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7930,14 +7915,12 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7974,16 +7957,14 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>185</v>
@@ -8004,7 +7985,7 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8015,14 +7996,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8035,13 +8018,13 @@
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>382</v>
@@ -8050,11 +8033,9 @@
         <v>383</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8102,7 +8083,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8111,7 +8092,7 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>139</v>
@@ -8120,7 +8101,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8138,7 +8119,7 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8151,24 +8132,26 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8192,31 +8175,31 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8228,13 +8211,13 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8245,10 +8228,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8271,20 +8254,18 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>395</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8308,13 +8289,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8332,7 +8313,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8347,10 +8328,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8361,10 +8342,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8387,19 +8368,19 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8448,7 +8429,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8463,24 +8444,24 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8491,7 +8472,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8503,19 +8484,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8564,39 +8545,39 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8619,16 +8600,20 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>174</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>175</v>
+        <v>413</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8676,7 +8661,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>177</v>
+        <v>411</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8685,16 +8670,16 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>178</v>
+        <v>376</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8705,10 +8690,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8719,7 +8704,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8731,16 +8716,18 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8776,37 +8763,37 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>185</v>
+        <v>419</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8817,14 +8804,12 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8845,17 +8830,15 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>175</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8904,25 +8887,25 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8933,21 +8916,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8956,19 +8939,19 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>194</v>
+        <v>426</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9018,25 +9001,25 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9047,44 +9030,46 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>199</v>
+        <v>387</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>200</v>
+        <v>388</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9108,13 +9093,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9132,19 +9117,19 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>205</v>
+        <v>389</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9161,10 +9146,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9184,21 +9169,21 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>207</v>
+        <v>429</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9222,13 +9207,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9246,7 +9231,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>210</v>
+        <v>428</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9264,7 +9249,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>211</v>
+        <v>434</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9275,10 +9260,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9289,7 +9274,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9298,21 +9283,21 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>174</v>
+        <v>436</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9360,13 +9345,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>216</v>
+        <v>435</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -9375,10 +9360,10 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9389,10 +9374,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9403,7 +9388,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9415,17 +9400,19 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9474,25 +9461,25 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>429</v>
+        <v>160</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9503,10 +9490,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9529,16 +9516,20 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>175</v>
+        <v>442</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9562,13 +9553,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>447</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9586,7 +9577,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>177</v>
+        <v>441</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9598,31 +9589,31 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>178</v>
+        <v>449</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9641,16 +9632,16 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>135</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>137</v>
+        <v>454</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9676,13 +9667,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -9700,7 +9691,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>185</v>
+        <v>451</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9712,13 +9703,13 @@
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9729,14 +9720,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9749,26 +9740,24 @@
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>134</v>
+        <v>459</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9816,7 +9805,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9828,13 +9817,13 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9845,10 +9834,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9859,7 +9848,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -9871,17 +9860,17 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>362</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -9906,13 +9895,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -9930,13 +9919,13 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
@@ -9948,7 +9937,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>439</v>
+        <v>367</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -9959,10 +9948,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9970,32 +9959,34 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>441</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>157</v>
+        <v>468</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O70" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10020,13 +10011,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10044,13 +10035,13 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
@@ -10059,24 +10050,24 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>159</v>
+        <v>474</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>160</v>
+        <v>475</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10087,7 +10078,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10099,20 +10090,18 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>162</v>
+        <v>478</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10160,13 +10149,13 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
@@ -10175,10 +10164,10 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>165</v>
+        <v>481</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10189,10 +10178,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10209,30 +10198,32 @@
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>261</v>
+        <v>483</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="R72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10252,13 +10243,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>451</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10276,7 +10267,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10291,24 +10282,24 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10319,7 +10310,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10331,18 +10322,18 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>261</v>
+        <v>492</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10366,13 +10357,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10390,13 +10381,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -10405,24 +10396,24 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>462</v>
+        <v>303</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10433,7 +10424,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10445,18 +10436,20 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10504,13 +10497,13 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
@@ -10519,24 +10512,24 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>80</v>
+        <v>503</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10559,17 +10552,19 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>362</v>
+        <v>506</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10618,7 +10613,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10633,24 +10628,24 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>367</v>
+        <v>511</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>80</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10658,7 +10653,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10667,26 +10662,22 @@
         <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>108</v>
+        <v>514</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10710,13 +10701,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -10734,10 +10725,10 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>88</v>
@@ -10749,28 +10740,28 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>481</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10789,18 +10780,18 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>261</v>
+        <v>523</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -10848,7 +10839,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10863,24 +10854,24 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10897,32 +10888,26 @@
         <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q78" t="s" s="2">
-        <v>493</v>
-      </c>
+      <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
         <v>80</v>
       </c>
@@ -10966,7 +10951,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10981,24 +10966,24 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11021,18 +11006,16 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>497</v>
+        <v>174</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>500</v>
-      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11080,7 +11063,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11095,24 +11078,24 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>304</v>
+        <v>537</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>501</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11123,7 +11106,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11135,19 +11118,17 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>503</v>
+        <v>404</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11196,13 +11177,13 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
@@ -11211,696 +11192,16 @@
         <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>508</v>
+        <v>409</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-CarePlan.xlsx
+++ b/StructureDefinition-profile-CarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7447672-06:00</t>
+    <t>2026-02-20T11:59:20.7444734-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CarePlan|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CarePlan</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -601,7 +601,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -805,7 +805,7 @@
     <t>intent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.intent|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.intent}
 </t>
   </si>
   <si>
@@ -1101,7 +1101,7 @@
     <t>addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.addresses|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.addresses}
 </t>
   </si>
   <si>
@@ -1209,7 +1209,7 @@
     <t>activity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.activity|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.activity}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-CarePlan.xlsx
+++ b/StructureDefinition-profile-CarePlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7444734-06:00</t>
+    <t>2026-02-21T13:36:54.1429953-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CarePlan</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CarePlan|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -554,26 +554,115 @@
     <t>Request.basedOn</t>
   </si>
   <si>
-    <t>CarePlan.basedOn.id</t>
+    <t>CarePlan.replaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supersedes
+</t>
+  </si>
+  <si>
+    <t>CarePlan replaced by this CarePlan</t>
+  </si>
+  <si>
+    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>CarePlan.partOf</t>
+  </si>
+  <si>
+    <t>Part of referenced CarePlan</t>
+  </si>
+  <si>
+    <t>A larger care plan of which this particular care plan is a component or step.</t>
+  </si>
+  <si>
+    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
+  </si>
+  <si>
+    <t>CarePlan.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
+  </si>
+  <si>
+    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
+This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
+  </si>
+  <si>
+    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status {uses different ValueSet}</t>
+  </si>
+  <si>
+    <t>.statusCode planned = new active = active completed = completed</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PTH-5</t>
+  </si>
+  <si>
+    <t>CarePlan.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | order | option</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
+  </si>
+  <si>
+    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>CarePlan.intent.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>CarePlan.basedOn.extension</t>
+    <t>CarePlan.intent.extension</t>
   </si>
   <si>
     <t>Extension</t>
@@ -586,36 +675,337 @@
 </t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.intent.extension:intent</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.intent|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CarePlan.intent from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that the target element context `CarePlan.intent` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `CarePlan.intent` is mapped to FHIR R4 element `CarePlan.intent` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CarePlan.intent.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>CarePlan.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of plan</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
+  </si>
+  <si>
+    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
+  </si>
+  <si>
+    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-category|4.0.1</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>CarePlan.title</t>
+  </si>
+  <si>
+    <t>Human-friendly name for the care plan</t>
+  </si>
+  <si>
+    <t>Human-friendly name for the care plan.</t>
+  </si>
+  <si>
+    <t>CarePlan.description</t>
+  </si>
+  <si>
+    <t>Summary of nature of plan</t>
+  </si>
+  <si>
+    <t>A description of the scope and nature of the plan.</t>
+  </si>
+  <si>
+    <t>Provides more detail than conveyed by category.</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who the care plan is for</t>
+  </si>
+  <si>
+    <t>Identifies the patient or group whose intended care is described by the plan.</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PAT].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>CarePlan.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which this CarePlan was created or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. CarePlan activities conducted as a result of the care plan may well occur as part of other encounters.</t>
+  </si>
+  <si>
+    <t>Request.context</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Associated PV1</t>
+  </si>
+  <si>
+    <t>CarePlan.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period plan covers</t>
+  </si>
+  <si>
+    <t>Indicates when the plan did (or is intended to) come into effect and end.</t>
+  </si>
+  <si>
+    <t>Any activities scheduled as part of the plan should be constrained to the specified period regardless of whether the activities are planned within a single encounter/episode or across multiple encounters/episodes (e.g. the longitudinal management of a chronic condition).</t>
+  </si>
+  <si>
+    <t>Allows tracking what plan(s) are in effect at a particular time.</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>GOL-7 / GOL-8</t>
+  </si>
+  <si>
+    <t>CarePlan.created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authoredOn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date record was first recorded</t>
+  </si>
+  <si>
+    <t>Represents when this particular CarePlan record was created in the system, which is often a system-generated date.</t>
+  </si>
+  <si>
+    <t>Request.authoredOn</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>CarePlan.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who is the designated responsible party</t>
+  </si>
+  <si>
+    <t>When populated, the author is responsible for the care plan.  The care plan is attributed to the author.</t>
+  </si>
+  <si>
+    <t>The author may also be a contributor.  For example, an organization can be an author, but not listed as a contributor.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>CarePlan.contributor</t>
+  </si>
+  <si>
+    <t>Who provided the content of the care plan</t>
+  </si>
+  <si>
+    <t>Identifies the individual(s) or organization who provided the contents of the care plan.</t>
+  </si>
+  <si>
+    <t>Collaborative care plans may have multiple contributors.</t>
+  </si>
+  <si>
+    <t>CarePlan.careTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CareTeam|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who's involved in plan?</t>
+  </si>
+  <si>
+    <t>Identifies all people and organizations who are expected to be involved in the care envisioned by this plan.</t>
+  </si>
+  <si>
+    <t>Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
+  </si>
+  <si>
+    <t>Request.performer {similar but does not entail CareTeam}</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>CarePlan.addresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Health issues this plan addresses</t>
+  </si>
+  <si>
+    <t>Identifies the conditions/problems/concerns/diagnoses/etc. whose management and/or mitigation are handled by this plan.</t>
+  </si>
+  <si>
+    <t>When the diagnosis is related to an allergy or intolerance, the Condition and AllergyIntolerance resources can both be used. However, to be actionable for decision support, using Condition alone is not sufficient as the allergy or intolerance condition needs to be represented as an AllergyIntolerance.</t>
+  </si>
+  <si>
+    <t>Links plan to the conditions it manages.  The element can identify risks addressed by the plan as well as active conditions.  (The Condition resource can include things like "at risk for hypertension" or "fall risk".)  Also scopes plans - multiple plans may exist addressing different concerns.</t>
+  </si>
+  <si>
+    <t>Request.reasonReference</t>
+  </si>
+  <si>
+    <t>.actRelationship[typeCode=SUBJ].target[classCode=CONC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>PRB-4</t>
+  </si>
+  <si>
+    <t>CarePlan.addresses.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CarePlan.addresses.extension</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.basedOn.extension:basedOn</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
+    <t>CarePlan.addresses.extension:addresses</t>
+  </si>
+  <si>
+    <t>addresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.addresses|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CarePlan.basedOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/NutritionOrder,http://hl7.org/fhir/StructureDefinition/RequestOrchestration,http://hl7.org/fhir/StructureDefinition/ServiceRequest in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CarePlan.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `CarePlan.basedOn` has is mapped to FHIR R4 element `CarePlan.basedOn`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>CarePlan.basedOn.reference</t>
+    <t>Cross-version extension for CarePlan.addresses from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CarePlan.addresses` is mapped to FHIR R4 element `CarePlan.addresses` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>CarePlan.addresses.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -634,7 +1024,7 @@
 </t>
   </si>
   <si>
-    <t>CarePlan.basedOn.type</t>
+    <t>CarePlan.addresses.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -659,7 +1049,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>CarePlan.basedOn.identifier</t>
+    <t>CarePlan.addresses.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -680,7 +1070,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>CarePlan.basedOn.display</t>
+    <t>CarePlan.addresses.display</t>
   </si>
   <si>
     <t>Text alternative for the resource</t>
@@ -693,434 +1083,6 @@
   </si>
   <si>
     <t>Reference.display</t>
-  </si>
-  <si>
-    <t>CarePlan.replaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supersedes
-</t>
-  </si>
-  <si>
-    <t>CarePlan replaced by this CarePlan</t>
-  </si>
-  <si>
-    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>CarePlan.partOf</t>
-  </si>
-  <si>
-    <t>Part of referenced CarePlan</t>
-  </si>
-  <si>
-    <t>A larger care plan of which this particular care plan is a component or step.</t>
-  </si>
-  <si>
-    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
-  </si>
-  <si>
-    <t>CarePlan.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
-  </si>
-  <si>
-    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
-This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
-  </si>
-  <si>
-    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status {uses different ValueSet}</t>
-  </si>
-  <si>
-    <t>.statusCode planned = new active = active completed = completed</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PTH-5</t>
-  </si>
-  <si>
-    <t>CarePlan.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | order | option</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
-  </si>
-  <si>
-    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>CarePlan.intent.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>CarePlan.intent.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.intent.extension:intent</t>
-  </si>
-  <si>
-    <t>intent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.intent}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CarePlan.intent from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that the target element context `CarePlan.intent` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `CarePlan.intent` has is mapped to FHIR R4 element `CarePlan.intent`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CarePlan.intent.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>CarePlan.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Type of plan</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
-  </si>
-  <si>
-    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-category|4.0.1</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>CarePlan.title</t>
-  </si>
-  <si>
-    <t>Human-friendly name for the care plan</t>
-  </si>
-  <si>
-    <t>Human-friendly name for the care plan.</t>
-  </si>
-  <si>
-    <t>CarePlan.description</t>
-  </si>
-  <si>
-    <t>Summary of nature of plan</t>
-  </si>
-  <si>
-    <t>A description of the scope and nature of the plan.</t>
-  </si>
-  <si>
-    <t>Provides more detail than conveyed by category.</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>CarePlan.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who the care plan is for</t>
-  </si>
-  <si>
-    <t>Identifies the patient or group whose intended care is described by the plan.</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PAT].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>CarePlan.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which this CarePlan was created or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. CarePlan activities conducted as a result of the care plan may well occur as part of other encounters.</t>
-  </si>
-  <si>
-    <t>Request.context</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Associated PV1</t>
-  </si>
-  <si>
-    <t>CarePlan.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timing
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period plan covers</t>
-  </si>
-  <si>
-    <t>Indicates when the plan did (or is intended to) come into effect and end.</t>
-  </si>
-  <si>
-    <t>Any activities scheduled as part of the plan should be constrained to the specified period regardless of whether the activities are planned within a single encounter/episode or across multiple encounters/episodes (e.g. the longitudinal management of a chronic condition).</t>
-  </si>
-  <si>
-    <t>Allows tracking what plan(s) are in effect at a particular time.</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>GOL-7 / GOL-8</t>
-  </si>
-  <si>
-    <t>CarePlan.created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authoredOn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date record was first recorded</t>
-  </si>
-  <si>
-    <t>Represents when this particular CarePlan record was created in the system, which is often a system-generated date.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>CarePlan.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who is the designated responsible party</t>
-  </si>
-  <si>
-    <t>When populated, the author is responsible for the care plan.  The care plan is attributed to the author.</t>
-  </si>
-  <si>
-    <t>The author may also be a contributor.  For example, an organization can be an author, but not listed as a contributor.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>CarePlan.contributor</t>
-  </si>
-  <si>
-    <t>Who provided the content of the care plan</t>
-  </si>
-  <si>
-    <t>Identifies the individual(s) or organization who provided the contents of the care plan.</t>
-  </si>
-  <si>
-    <t>Collaborative care plans may have multiple contributors.</t>
-  </si>
-  <si>
-    <t>CarePlan.careTeam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CareTeam|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who's involved in plan?</t>
-  </si>
-  <si>
-    <t>Identifies all people and organizations who are expected to be involved in the care envisioned by this plan.</t>
-  </si>
-  <si>
-    <t>Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
-  </si>
-  <si>
-    <t>Request.performer {similar but does not entail CareTeam}</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>CarePlan.addresses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Health issues this plan addresses</t>
-  </si>
-  <si>
-    <t>Identifies the conditions/problems/concerns/diagnoses/etc. whose management and/or mitigation are handled by this plan.</t>
-  </si>
-  <si>
-    <t>When the diagnosis is related to an allergy or intolerance, the Condition and AllergyIntolerance resources can both be used. However, to be actionable for decision support, using Condition alone is not sufficient as the allergy or intolerance condition needs to be represented as an AllergyIntolerance.</t>
-  </si>
-  <si>
-    <t>Links plan to the conditions it manages.  The element can identify risks addressed by the plan as well as active conditions.  (The Condition resource can include things like "at risk for hypertension" or "fall risk".)  Also scopes plans - multiple plans may exist addressing different concerns.</t>
-  </si>
-  <si>
-    <t>Request.reasonReference</t>
-  </si>
-  <si>
-    <t>.actRelationship[typeCode=SUBJ].target[classCode=CONC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>PRB-4</t>
-  </si>
-  <si>
-    <t>CarePlan.addresses.id</t>
-  </si>
-  <si>
-    <t>CarePlan.addresses.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.addresses.extension:addresses</t>
-  </si>
-  <si>
-    <t>addresses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.addresses}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CarePlan.addresses from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CarePlan.addresses` has is mapped to FHIR R4 element `CarePlan.addresses`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>CarePlan.addresses.reference</t>
-  </si>
-  <si>
-    <t>CarePlan.addresses.type</t>
-  </si>
-  <si>
-    <t>CarePlan.addresses.identifier</t>
-  </si>
-  <si>
-    <t>CarePlan.addresses.display</t>
   </si>
   <si>
     <t>CarePlan.supportingInfo</t>
@@ -1203,23 +1165,7 @@
     <t>CarePlan.activity.extension</t>
   </si>
   <si>
-    <t>CarePlan.activity.extension:activity</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CarePlan.activity}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CarePlan.activity from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Identifies an action that has occurred or is a planned action to occur as part of the plan. For example, a medication to be used, lab tests to perform, self-monitoring that has occurred, education etc.</t>
-  </si>
-  <si>
-    <t>Element `CarePlan.activity` has is mapped to FHIR R4 element `CarePlan.activity`, but has no comparisons.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>CarePlan.activity.modifierExtension</t>
@@ -1349,9 +1295,6 @@
   </si>
   <si>
     <t>CarePlan.activity.detail.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.modifierExtension</t>
@@ -2016,7 +1959,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3677,14 +3620,14 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3693,10 +3636,10 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>175</v>
@@ -3704,8 +3647,12 @@
       <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3753,25 +3700,25 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3782,10 +3729,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3805,18 +3752,20 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3853,19 +3802,19 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3877,7 +3826,7 @@
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -3894,20 +3843,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3916,24 +3863,26 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3957,13 +3906,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3981,39 +3930,39 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4021,7 +3970,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -4030,24 +3979,26 @@
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4071,13 +4022,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -4095,25 +4046,25 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4124,10 +4075,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4147,20 +4098,18 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4185,13 +4134,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4209,7 +4158,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4221,13 +4170,13 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4238,10 +4187,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4249,10 +4198,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4261,20 +4210,18 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4311,37 +4258,35 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4352,18 +4297,20 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -4375,19 +4322,19 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4437,25 +4384,25 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4466,21 +4413,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4489,23 +4436,19 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="O22" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4553,22 +4496,22 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -4582,10 +4525,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4608,7 +4551,7 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>225</v>
@@ -4619,7 +4562,9 @@
       <c r="N23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4643,13 +4588,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4667,7 +4612,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4688,7 +4633,7 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4696,10 +4641,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4707,7 +4652,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -4716,26 +4661,22 @@
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4759,34 +4700,34 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>88</v>
@@ -4798,24 +4739,24 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4823,7 +4764,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4832,25 +4773,23 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4875,13 +4814,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4899,10 +4838,10 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>88</v>
@@ -4914,13 +4853,13 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -4928,18 +4867,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
@@ -4951,16 +4890,16 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5011,10 +4950,10 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>88</v>
@@ -5023,19 +4962,19 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -5051,11 +4990,11 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5063,18 +5002,20 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5111,59 +5052,59 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -5175,21 +5116,23 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5237,43 +5180,43 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5289,16 +5232,16 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5349,7 +5292,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5361,16 +5304,16 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5378,10 +5321,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5392,7 +5335,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5404,20 +5347,18 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5441,13 +5382,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5465,13 +5406,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5480,13 +5421,13 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5494,10 +5435,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5508,7 +5449,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5517,18 +5458,20 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5577,13 +5520,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5606,10 +5549,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5620,7 +5563,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5629,20 +5572,20 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5691,13 +5634,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5706,13 +5649,13 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5720,21 +5663,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5746,16 +5689,20 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5803,13 +5750,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5818,24 +5765,24 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5855,20 +5802,18 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5917,7 +5862,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5929,38 +5874,38 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5969,23 +5914,19 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6021,62 +5962,64 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D36" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6085,18 +6028,20 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6145,28 +6090,28 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6174,10 +6119,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6200,16 +6145,16 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6259,7 +6204,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6268,19 +6213,19 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6288,10 +6233,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6302,7 +6247,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6311,19 +6256,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6349,13 +6294,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6373,13 +6318,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6391,7 +6336,7 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6402,10 +6347,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6416,7 +6361,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6425,21 +6370,21 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6487,13 +6432,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6502,13 +6447,13 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6516,10 +6461,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6530,7 +6475,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6542,20 +6487,18 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>334</v>
+        <v>204</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6603,13 +6546,13 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -6618,24 +6561,24 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6646,7 +6589,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6658,16 +6601,20 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>343</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>175</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6715,25 +6662,25 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>177</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6744,10 +6691,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6770,16 +6717,20 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>180</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6815,19 +6766,19 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>185</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6839,31 +6790,29 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6884,18 +6833,18 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6943,7 +6892,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6955,13 +6904,13 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6972,10 +6921,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6995,20 +6944,18 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7057,7 +7004,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7066,16 +7013,16 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7086,21 +7033,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7109,19 +7056,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>200</v>
+        <v>367</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7147,13 +7094,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7171,25 +7118,25 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7200,44 +7147,46 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>207</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>208</v>
+        <v>371</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7285,25 +7234,25 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>210</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7314,10 +7263,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7328,7 +7277,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7337,19 +7286,19 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>213</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>214</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>215</v>
+        <v>376</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7375,13 +7324,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7399,13 +7348,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>216</v>
+        <v>373</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7417,7 +7366,7 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7428,10 +7377,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7454,19 +7403,19 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7515,7 +7464,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7530,10 +7479,10 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7544,10 +7493,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7570,19 +7519,19 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7631,7 +7580,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7649,21 +7598,21 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>368</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7674,7 +7623,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7686,17 +7635,19 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7745,25 +7696,25 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>374</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7774,10 +7725,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7800,16 +7751,18 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>174</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>175</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>176</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7857,7 +7810,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>177</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7866,16 +7819,16 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>178</v>
+        <v>406</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7886,10 +7839,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7900,7 +7853,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7912,13 +7865,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>180</v>
+        <v>307</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>181</v>
+        <v>308</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7957,35 +7910,37 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7996,16 +7951,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8024,16 +7977,16 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
+        <v>135</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>384</v>
+        <v>137</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8083,7 +8036,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8092,7 +8045,7 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>139</v>
@@ -8101,7 +8054,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8112,14 +8065,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8141,10 +8094,10 @@
         <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>137</v>
@@ -8199,7 +8152,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8228,10 +8181,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8242,7 +8195,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8254,18 +8207,18 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8289,13 +8242,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8313,13 +8266,13 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8331,7 +8284,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8342,10 +8295,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8368,19 +8321,17 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>397</v>
+        <v>157</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8429,7 +8380,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8444,10 +8395,10 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>401</v>
+        <v>159</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>402</v>
+        <v>160</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8458,10 +8409,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8484,19 +8435,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>404</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>162</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>407</v>
+        <v>164</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8545,7 +8496,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8560,24 +8511,24 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>409</v>
+        <v>160</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8600,19 +8551,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>224</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8637,13 +8588,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8661,7 +8612,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8670,30 +8621,30 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8704,7 +8655,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8716,18 +8667,18 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>370</v>
+        <v>224</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8751,13 +8702,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8775,25 +8726,25 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8804,10 +8755,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8818,7 +8769,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8830,15 +8781,17 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>174</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>175</v>
+        <v>442</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8887,25 +8840,25 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8916,14 +8869,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8942,18 +8895,18 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>135</v>
+        <v>446</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9001,7 +8954,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>185</v>
+        <v>445</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9013,13 +8966,13 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9030,21 +8983,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9053,22 +9006,22 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>388</v>
+        <v>451</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>137</v>
+        <v>452</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>143</v>
+        <v>453</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9093,13 +9046,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9117,39 +9070,39 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>131</v>
+        <v>457</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9172,18 +9125,18 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9207,13 +9160,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9231,7 +9184,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9246,10 +9199,10 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9260,10 +9213,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9274,34 +9227,38 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>157</v>
+        <v>466</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="R64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9345,13 +9302,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -9360,10 +9317,10 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>159</v>
+        <v>471</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>160</v>
+        <v>472</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9374,10 +9331,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9388,7 +9345,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9400,19 +9357,17 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>102</v>
+        <v>474</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>475</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9461,13 +9416,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9476,24 +9431,24 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9516,19 +9471,19 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>261</v>
+        <v>480</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9553,13 +9508,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9577,7 +9532,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9592,24 +9547,24 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>450</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9632,18 +9587,20 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>261</v>
+        <v>488</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9667,13 +9624,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -9691,7 +9648,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9706,24 +9663,24 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9734,7 +9691,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -9746,17 +9703,15 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -9781,13 +9736,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -9805,13 +9760,13 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -9820,35 +9775,35 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -9860,17 +9815,17 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>362</v>
+        <v>505</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -9919,13 +9874,13 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
@@ -9937,21 +9892,21 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>367</v>
+        <v>509</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9959,7 +9914,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -9968,26 +9923,22 @@
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>108</v>
+        <v>505</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10011,13 +9962,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10035,10 +9986,10 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>88</v>
@@ -10050,24 +10001,24 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>476</v>
+        <v>515</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10090,17 +10041,15 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10149,7 +10098,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10164,24 +10113,24 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10192,38 +10141,34 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>483</v>
+        <v>387</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q72" t="s" s="2">
-        <v>488</v>
-      </c>
+      <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10267,13 +10212,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
@@ -10282,926 +10227,16 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
